--- a/bin/Debug/net8.0/excels/AsientosContables_FrescaTech.xlsx
+++ b/bin/Debug/net8.0/excels/AsientosContables_FrescaTech.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arik\source\repos\excel1\bin\Debug\net8.0\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB81EB4-6A1D-4A32-B1B5-993FD82D17EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asiento 1 - Aporte inicial" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,12 @@
     <sheet name="Asiento 4 - Cobro de servicios" sheetId="4" r:id="rId4"/>
     <sheet name="Asiento 5 - Pago de sueldos y a" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Fecha</t>
   </si>
@@ -43,49 +44,52 @@
     <t>Banco</t>
   </si>
   <si>
+    <t>Debe</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
     <t>Capital Social</t>
   </si>
   <si>
+    <t>Haber</t>
+  </si>
+  <si>
     <t>Caja</t>
   </si>
   <si>
-    <t>Debe</t>
-  </si>
-  <si>
-    <t>Haber</t>
-  </si>
-  <si>
     <t>05/04/2025</t>
   </si>
   <si>
+    <t>Insumos</t>
+  </si>
+  <si>
+    <t>IVA Crédito Fiscal</t>
+  </si>
+  <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
     <t>06/04/2025</t>
   </si>
   <si>
-    <t>Insumos</t>
-  </si>
-  <si>
-    <t>IVA Crédito Fiscal</t>
-  </si>
-  <si>
-    <t>Proveedores</t>
-  </si>
-  <si>
     <t>Herramientas</t>
   </si>
   <si>
     <t>10/04/2025</t>
   </si>
   <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Servicios Prestados</t>
+  </si>
+  <si>
+    <t>IVA Débito Fiscal</t>
+  </si>
+  <si>
     <t>13/04/2025</t>
-  </si>
-  <si>
-    <t>Clientes</t>
-  </si>
-  <si>
-    <t>Servicios Prestados</t>
-  </si>
-  <si>
-    <t>IVA Débito Fiscal</t>
   </si>
   <si>
     <t>15/04/2025</t>
@@ -106,8 +110,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,9 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -182,9 +187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,9 +227,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,7 +264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,7 +299,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,502 +472,507 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0">
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0">
         <v>50000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7">
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0">
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8">
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0">
         <v>21000</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0">
         <v>121000</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10">
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0">
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11">
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0">
         <v>5250</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0">
         <v>30250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F10"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0">
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0">
         <v>206612</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0">
         <v>43388</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0">
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0">
         <v>82645</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0">
         <v>17355</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F10"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0">
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0">
         <v>250000</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0">
         <v>50000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
+      <c r="B2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0">
         <v>80000</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0">
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0">
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0">
         <v>15000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>